--- a/mySystem/mySystem/xls/CSBag/SOP-MFG-303-R06A  CS制袋日报表.xlsx
+++ b/mySystem/mySystem/xls/CSBag/SOP-MFG-303-R06A  CS制袋日报表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\management system\CS制袋\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\upload\mitcpro\mySystem\mySystem\xls\CSBag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">生产日报表!$B$3:$S$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">生产日报表!$A$1:$S$7</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -872,6 +873,42 @@
     <xf numFmtId="178" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -907,42 +944,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1480,7 +1481,7 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -1551,55 +1552,55 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" s="23" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="73" t="s">
+      <c r="G3" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="74"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="67" t="s">
+      <c r="H3" s="63"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="68"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="70" t="s">
+      <c r="K3" s="57"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="71"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="70" t="s">
+      <c r="N3" s="60"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="65" t="s">
+      <c r="Q3" s="60"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="54" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="56"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="54"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="66"/>
       <c r="G4" s="47" t="s">
         <v>30</v>
       </c>
@@ -1636,10 +1637,10 @@
       <c r="R4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="S4" s="66"/>
+      <c r="S4" s="55"/>
     </row>
     <row r="5" spans="1:19" s="34" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="53" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="35"/>
@@ -1773,17 +1774,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="G3:I3"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A6:A7">
@@ -1886,6 +1887,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.22" right="0.17" top="0.44" bottom="0.22" header="0.31496062992125984" footer="0.2"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="19" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>